--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2478.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2478.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.184514883103467</v>
+        <v>1.687213540077209</v>
       </c>
       <c r="B1">
-        <v>2.829581364797677</v>
+        <v>2.06021523475647</v>
       </c>
       <c r="C1">
-        <v>5.752086550068201</v>
+        <v>5.147397518157959</v>
       </c>
       <c r="D1">
-        <v>3.778005171281839</v>
+        <v>1.378853440284729</v>
       </c>
       <c r="E1">
-        <v>1.289625388830278</v>
+        <v>0.6622394323348999</v>
       </c>
     </row>
   </sheetData>
